--- a/src/test/resources/excel/Ex2.xlsx
+++ b/src/test/resources/excel/Ex2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>company2</t>
-  </si>
-  <si>
-    <t>date</t>
   </si>
   <si>
     <t>data3</t>
@@ -157,10 +154,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -456,1070 +452,1003 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="4" t="s">
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4" t="s">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="4"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="L2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="2">
-        <v>44597</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C4" s="1">
+        <v>10</v>
+      </c>
       <c r="D4" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E4" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F4" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G4" s="1">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="H4" s="1">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I4" s="1">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="J4" s="1">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K4" s="1">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="L4" s="1">
-        <v>123</v>
+        <v>456</v>
       </c>
       <c r="M4" s="1">
-        <v>456</v>
+        <v>789</v>
       </c>
       <c r="N4" s="1">
-        <v>789</v>
-      </c>
-      <c r="O4" s="1">
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="2">
-        <v>44598</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C5" s="1">
+        <v>11</v>
+      </c>
       <c r="D5" s="1">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E5" s="1">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F5" s="1">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G5" s="1">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="H5" s="1">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="I5" s="1">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J5" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K5" s="1">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="L5" s="1">
-        <v>124</v>
+        <v>457</v>
       </c>
       <c r="M5" s="1">
-        <v>457</v>
+        <v>790</v>
       </c>
       <c r="N5" s="1">
-        <v>790</v>
-      </c>
-      <c r="O5" s="1">
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="2">
-        <v>44599</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C6" s="1">
+        <v>12</v>
+      </c>
       <c r="D6" s="1">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E6" s="1">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F6" s="1">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G6" s="1">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="H6" s="1">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="I6" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J6" s="1">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K6" s="1">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="L6" s="1">
-        <v>125</v>
+        <v>458</v>
       </c>
       <c r="M6" s="1">
-        <v>458</v>
+        <v>791</v>
       </c>
       <c r="N6" s="1">
-        <v>791</v>
-      </c>
-      <c r="O6" s="1">
         <v>161</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="2">
-        <v>44597</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C7" s="1">
+        <v>13</v>
+      </c>
       <c r="D7" s="1">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E7" s="1">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F7" s="1">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G7" s="1">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="H7" s="1">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="I7" s="1">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J7" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K7" s="1">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="L7" s="1">
-        <v>126</v>
+        <v>459</v>
       </c>
       <c r="M7" s="1">
-        <v>459</v>
+        <v>792</v>
       </c>
       <c r="N7" s="1">
-        <v>792</v>
-      </c>
-      <c r="O7" s="1">
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="2">
-        <v>44598</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C8" s="1">
+        <v>14</v>
+      </c>
       <c r="D8" s="1">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="E8" s="1">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F8" s="1">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G8" s="1">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="H8" s="1">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I8" s="1">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="J8" s="1">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="K8" s="1">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="L8" s="1">
-        <v>127</v>
+        <v>460</v>
       </c>
       <c r="M8" s="1">
-        <v>460</v>
+        <v>793</v>
       </c>
       <c r="N8" s="1">
-        <v>793</v>
-      </c>
-      <c r="O8" s="1">
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="2">
-        <v>44599</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C9" s="1">
+        <v>15</v>
+      </c>
       <c r="D9" s="1">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E9" s="1">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F9" s="1">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G9" s="1">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="H9" s="1">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="I9" s="1">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="J9" s="1">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K9" s="1">
-        <v>50</v>
+        <v>128</v>
       </c>
       <c r="L9" s="1">
-        <v>128</v>
+        <v>461</v>
       </c>
       <c r="M9" s="1">
-        <v>461</v>
+        <v>794</v>
       </c>
       <c r="N9" s="1">
-        <v>794</v>
-      </c>
-      <c r="O9" s="1">
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="2">
-        <v>44597</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C10" s="1">
+        <v>16</v>
+      </c>
       <c r="D10" s="1">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E10" s="1">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F10" s="1">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G10" s="1">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="H10" s="1">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I10" s="1">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="J10" s="1">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="K10" s="1">
-        <v>55</v>
+        <v>129</v>
       </c>
       <c r="L10" s="1">
-        <v>129</v>
+        <v>462</v>
       </c>
       <c r="M10" s="1">
-        <v>462</v>
+        <v>795</v>
       </c>
       <c r="N10" s="1">
-        <v>795</v>
-      </c>
-      <c r="O10" s="1">
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="2">
-        <v>44598</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C11" s="1">
+        <v>17</v>
+      </c>
       <c r="D11" s="1">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E11" s="1">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F11" s="1">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G11" s="1">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="H11" s="1">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="I11" s="1">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="J11" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="K11" s="1">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="L11" s="1">
-        <v>130</v>
+        <v>463</v>
       </c>
       <c r="M11" s="1">
-        <v>463</v>
+        <v>796</v>
       </c>
       <c r="N11" s="1">
-        <v>796</v>
-      </c>
-      <c r="O11" s="1">
         <v>166</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="2">
-        <v>44599</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C12" s="1">
+        <v>18</v>
+      </c>
       <c r="D12" s="1">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E12" s="1">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F12" s="1">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G12" s="1">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="H12" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I12" s="1">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="J12" s="1">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="K12" s="1">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="L12" s="1">
-        <v>131</v>
+        <v>464</v>
       </c>
       <c r="M12" s="1">
-        <v>464</v>
+        <v>797</v>
       </c>
       <c r="N12" s="1">
-        <v>797</v>
-      </c>
-      <c r="O12" s="1">
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B13" s="2">
-        <v>44597</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C13" s="1">
+        <v>19</v>
+      </c>
       <c r="D13" s="1">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E13" s="1">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="F13" s="1">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G13" s="1">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="H13" s="1">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I13" s="1">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="J13" s="1">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K13" s="1">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="L13" s="1">
-        <v>132</v>
+        <v>465</v>
       </c>
       <c r="M13" s="1">
-        <v>465</v>
+        <v>798</v>
       </c>
       <c r="N13" s="1">
-        <v>798</v>
-      </c>
-      <c r="O13" s="1">
         <v>168</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>11</v>
       </c>
-      <c r="B14" s="2">
-        <v>44598</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C14" s="1">
+        <v>20</v>
+      </c>
       <c r="D14" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E14" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="F14" s="1">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G14" s="1">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="H14" s="1">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I14" s="1">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="J14" s="1">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="K14" s="1">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="L14" s="1">
-        <v>133</v>
+        <v>466</v>
       </c>
       <c r="M14" s="1">
-        <v>466</v>
+        <v>799</v>
       </c>
       <c r="N14" s="1">
-        <v>799</v>
-      </c>
-      <c r="O14" s="1">
         <v>169</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>12</v>
       </c>
-      <c r="B15" s="2">
-        <v>44599</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C15" s="1">
+        <v>21</v>
+      </c>
       <c r="D15" s="1">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E15" s="1">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F15" s="1">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G15" s="1">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="H15" s="1">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I15" s="1">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="J15" s="1">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K15" s="1">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="L15" s="1">
-        <v>134</v>
+        <v>467</v>
       </c>
       <c r="M15" s="1">
-        <v>467</v>
+        <v>800</v>
       </c>
       <c r="N15" s="1">
-        <v>800</v>
-      </c>
-      <c r="O15" s="1">
         <v>170</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>13</v>
       </c>
-      <c r="B16" s="2">
-        <v>44597</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C16" s="1">
+        <v>22</v>
+      </c>
       <c r="D16" s="1">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E16" s="1">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="F16" s="1">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G16" s="1">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="H16" s="1">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="I16" s="1">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="J16" s="1">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="K16" s="1">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="L16" s="1">
-        <v>135</v>
+        <v>468</v>
       </c>
       <c r="M16" s="1">
-        <v>468</v>
+        <v>801</v>
       </c>
       <c r="N16" s="1">
-        <v>801</v>
-      </c>
-      <c r="O16" s="1">
         <v>171</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>14</v>
       </c>
-      <c r="B17" s="2">
-        <v>44598</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C17" s="1">
+        <v>23</v>
+      </c>
       <c r="D17" s="1">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E17" s="1">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F17" s="1">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G17" s="1">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="H17" s="1">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="I17" s="1">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="J17" s="1">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K17" s="1">
-        <v>90</v>
+        <v>136</v>
       </c>
       <c r="L17" s="1">
-        <v>136</v>
+        <v>469</v>
       </c>
       <c r="M17" s="1">
-        <v>469</v>
+        <v>802</v>
       </c>
       <c r="N17" s="1">
-        <v>802</v>
-      </c>
-      <c r="O17" s="1">
         <v>172</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>15</v>
       </c>
-      <c r="B18" s="2">
-        <v>44599</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C18" s="1">
+        <v>24</v>
+      </c>
       <c r="D18" s="1">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E18" s="1">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F18" s="1">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G18" s="1">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="H18" s="1">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="I18" s="1">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="J18" s="1">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="K18" s="1">
-        <v>95</v>
+        <v>137</v>
       </c>
       <c r="L18" s="1">
-        <v>137</v>
+        <v>470</v>
       </c>
       <c r="M18" s="1">
-        <v>470</v>
+        <v>803</v>
       </c>
       <c r="N18" s="1">
-        <v>803</v>
-      </c>
-      <c r="O18" s="1">
         <v>173</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>16</v>
       </c>
-      <c r="B19" s="2">
-        <v>44597</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C19" s="1">
+        <v>25</v>
+      </c>
       <c r="D19" s="1">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E19" s="1">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F19" s="1">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G19" s="1">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="H19" s="1">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="I19" s="1">
-        <v>37</v>
+        <v>90</v>
       </c>
       <c r="J19" s="1">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K19" s="1">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="L19" s="1">
-        <v>138</v>
+        <v>471</v>
       </c>
       <c r="M19" s="1">
-        <v>471</v>
+        <v>804</v>
       </c>
       <c r="N19" s="1">
-        <v>804</v>
-      </c>
-      <c r="O19" s="1">
         <v>174</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>17</v>
       </c>
-      <c r="B20" s="2">
-        <v>44598</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C20" s="1">
+        <v>26</v>
+      </c>
       <c r="D20" s="1">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="E20" s="1">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="F20" s="1">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G20" s="1">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="H20" s="1">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I20" s="1">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="J20" s="1">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="K20" s="1">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="L20" s="1">
-        <v>139</v>
+        <v>472</v>
       </c>
       <c r="M20" s="1">
-        <v>472</v>
+        <v>805</v>
       </c>
       <c r="N20" s="1">
-        <v>805</v>
-      </c>
-      <c r="O20" s="1">
         <v>175</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>18</v>
       </c>
-      <c r="B21" s="2">
-        <v>44599</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C21" s="1">
+        <v>27</v>
+      </c>
       <c r="D21" s="1">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E21" s="1">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="F21" s="1">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G21" s="1">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="H21" s="1">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="I21" s="1">
-        <v>39</v>
+        <v>100</v>
       </c>
       <c r="J21" s="1">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="K21" s="1">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="L21" s="1">
-        <v>140</v>
+        <v>473</v>
       </c>
       <c r="M21" s="1">
-        <v>473</v>
+        <v>806</v>
       </c>
       <c r="N21" s="1">
-        <v>806</v>
-      </c>
-      <c r="O21" s="1">
         <v>176</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>19</v>
       </c>
-      <c r="B22" s="2">
-        <v>44597</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C22" s="1">
+        <v>28</v>
+      </c>
       <c r="D22" s="1">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E22" s="1">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="F22" s="1">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="G22" s="1">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="H22" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I22" s="1">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="J22" s="1">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="K22" s="1">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="L22" s="1">
-        <v>141</v>
+        <v>474</v>
       </c>
       <c r="M22" s="1">
-        <v>474</v>
+        <v>807</v>
       </c>
       <c r="N22" s="1">
-        <v>807</v>
-      </c>
-      <c r="O22" s="1">
         <v>177</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>20</v>
       </c>
-      <c r="B23" s="2">
-        <v>44598</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C23" s="1">
+        <v>29</v>
+      </c>
       <c r="D23" s="1">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E23" s="1">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F23" s="1">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G23" s="1">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="H23" s="1">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="I23" s="1">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="J23" s="1">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K23" s="1">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="L23" s="1">
-        <v>142</v>
+        <v>475</v>
       </c>
       <c r="M23" s="1">
-        <v>475</v>
+        <v>808</v>
       </c>
       <c r="N23" s="1">
-        <v>808</v>
-      </c>
-      <c r="O23" s="1">
         <v>178</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="M2:O2"/>
+  <mergeCells count="10">
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="L2:N2"/>
     <mergeCell ref="A1:A3"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="B1:B3"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="C1:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
